--- a/РАБОЧИЙ СТОЛ/11,11,25 на 17,11,25 НФ/заказ НФ 11,11,25 на 17,11,25.xlsx
+++ b/РАБОЧИЙ СТОЛ/11,11,25 на 17,11,25 НФ/заказ НФ 11,11,25 на 17,11,25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\11,11,25 на 17,11,25 НФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59DDBD9-214C-4066-8350-8F83A13262A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24A923-DF2D-4F40-A1D9-645978806A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,19 +714,21 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>500</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="11"/>
       <c r="F3" s="5">
         <f>C3+D3+E3</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="K3">
         <f>F3</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,12 +738,14 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>720</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12"/>
       <c r="F4" s="9">
         <f>C4+D4+E4</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -751,13 +755,13 @@
       </c>
       <c r="K4">
         <f>F4*J4</f>
-        <v>0</v>
+        <v>273.60000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K5" s="13">
         <f>SUM(K3:K4)</f>
-        <v>0</v>
+        <v>773.6</v>
       </c>
     </row>
   </sheetData>
